--- a/excel/fon_si_eigenvector_centrality.xlsx
+++ b/excel/fon_si_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4611369905604182</v>
+        <v>0.4611369905604184</v>
       </c>
     </row>
     <row r="3">
@@ -401,21 +401,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nikola Milikic</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4189350759078166</v>
+        <v>0.4189350759078169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bojan Tomic</t>
+          <t>Nikola Milikic</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4189350759078166</v>
+        <v>0.4189350759078165</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4189350759078165</v>
+        <v>0.4189350759078164</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2195120916853957</v>
+        <v>0.2195120916853956</v>
       </c>
     </row>
     <row r="8">
@@ -445,17 +445,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.386979502944087e-15</v>
+        <v>-6.938893903907227e-17</v>
       </c>
     </row>
     <row r="11">
@@ -475,17 +475,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.386979502944087e-15</v>
+        <v>-1.942890293094023e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.386979502944087e-15</v>
+        <v>-2.220446049250313e-16</v>
       </c>
     </row>
   </sheetData>

--- a/excel/fon_si_eigenvector_centrality.xlsx
+++ b/excel/fon_si_eigenvector_centrality.xlsx
@@ -381,21 +381,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vladan Devedzic</t>
+          <t>Jelena Jovanovic</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4611369905604184</v>
+        <v>0.4611369905604182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jelena Jovanovic</t>
+          <t>Vladan Devedzic</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.461136990560418</v>
+        <v>0.4611369905604182</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4189350759078169</v>
+        <v>0.4189350759078165</v>
       </c>
     </row>
     <row r="5">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2195120916853956</v>
+        <v>0.219512091685396</v>
       </c>
     </row>
     <row r="8">
@@ -445,27 +445,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>-3.05311331771918e-16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Sinisa Vlajic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>-3.157196726277789e-16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sinisa Vlajic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.938893903907227e-17</v>
+        <v>-3.33066907387547e-16</v>
       </c>
     </row>
     <row r="11">
@@ -475,17 +475,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.942890293094023e-16</v>
+        <v>-3.33066907387547e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-3.33066907387547e-16</v>
       </c>
     </row>
   </sheetData>

--- a/excel/fon_si_eigenvector_centrality.xlsx
+++ b/excel/fon_si_eigenvector_centrality.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jelena Jovanovic</t>
+          <t>Vladan Devedzic</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -391,7 +391,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vladan Devedzic</t>
+          <t>Jelena Jovanovic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -405,13 +405,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4189350759078165</v>
+        <v>0.4189350759078166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nikola Milikic</t>
+          <t>Zoran Sevarac</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -421,7 +421,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zoran Sevarac</t>
+          <t>Nikola Milikic</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -435,57 +435,57 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.219512091685396</v>
+        <v>0.2195120916853961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sasa Lazarevic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.05311331771918e-16</v>
+        <v>-3.136380044566066e-15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sinisa Vlajic</t>
+          <t>Sasa Lazarevic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.157196726277789e-16</v>
+        <v>-3.164135620181695e-15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Milos Milic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.33066907387547e-16</v>
+        <v>-3.191891195797324e-15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Milos Milic</t>
+          <t>Sinisa Vlajic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.33066907387547e-16</v>
+        <v>-3.247402347028582e-15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.33066907387547e-16</v>
+        <v>-3.330669073875469e-15</v>
       </c>
     </row>
   </sheetData>
